--- a/results/mp/tinybert/corona/confidence/210/stop-words-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="105">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,54 +43,54 @@
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>recession</t>
+    <t>collapse</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>shit</t>
+    <t>fuck</t>
   </si>
   <si>
     <t>shame</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>shortage</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>fight</t>
   </si>
   <si>
@@ -112,127 +112,133 @@
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>strong</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>great</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
     <t>energy</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>giving</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
+    <t>sure</t>
   </si>
   <si>
     <t>key</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>available</t>
   </si>
   <si>
     <t>give</t>
@@ -247,67 +253,67 @@
     <t>want</t>
   </si>
   <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>health</t>
   </si>
   <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>hands</t>
-  </si>
-  <si>
-    <t>check</t>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>today</t>
   </si>
   <si>
     <t>local</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>make</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
-    <t>social</t>
+    <t>2</t>
   </si>
   <si>
     <t>shop</t>
   </si>
   <si>
+    <t>stock</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
     <t>stay</t>
   </si>
   <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>supermarket</t>
+    <t>19</t>
   </si>
   <si>
     <t>consumer</t>
@@ -316,19 +322,10 @@
     <t>san</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>people</t>
+    <t>food</t>
   </si>
   <si>
     <t>toilet</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
   <si>
     <t>prices</t>
@@ -689,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q79"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -782,13 +779,13 @@
         <v>31</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -800,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -808,13 +805,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -826,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K4">
-        <v>0.9696969696969697</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -850,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -858,13 +855,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7692307692307693</v>
+        <v>0.75</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -876,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K5">
-        <v>0.9615384615384616</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -900,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -932,13 +929,13 @@
         <v>34</v>
       </c>
       <c r="K6">
-        <v>0.9322033898305084</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="M6">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -950,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -958,13 +955,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6896551724137931</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -976,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>35</v>
@@ -985,10 +982,10 @@
         <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1000,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1008,7 +1005,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6129032258064516</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C8">
         <v>19</v>
@@ -1026,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K8">
-        <v>0.8518518518518519</v>
+        <v>0.875</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1050,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1058,13 +1055,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6052631578947368</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1076,19 +1073,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K9">
-        <v>0.8482142857142857</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L9">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="M9">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1100,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1108,13 +1105,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5897435897435898</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1126,19 +1123,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K10">
-        <v>0.8431372549019608</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L10">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="M10">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1150,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1182,13 +1179,13 @@
         <v>39</v>
       </c>
       <c r="K11">
-        <v>0.8333333333333334</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="M11">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1200,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1208,13 +1205,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4728682170542636</v>
+        <v>0.4899328859060403</v>
       </c>
       <c r="C12">
-        <v>244</v>
+        <v>73</v>
       </c>
       <c r="D12">
-        <v>244</v>
+        <v>73</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1226,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>272</v>
+        <v>76</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K12">
-        <v>0.8292682926829268</v>
+        <v>0.8203125</v>
       </c>
       <c r="L12">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="M12">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1250,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1258,13 +1255,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4429530201342282</v>
+        <v>0.4263565891472868</v>
       </c>
       <c r="C13">
-        <v>66</v>
+        <v>220</v>
       </c>
       <c r="D13">
-        <v>66</v>
+        <v>220</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1276,19 +1273,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>83</v>
+        <v>296</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K13">
-        <v>0.8203125</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L13">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="M13">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1300,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1308,13 +1305,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.392156862745098</v>
+        <v>0.4</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1326,19 +1323,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K14">
-        <v>0.8148148148148148</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="L14">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="M14">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1350,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1358,13 +1355,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3898305084745763</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C15">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D15">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1376,19 +1373,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K15">
-        <v>0.8103448275862069</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L15">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1400,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1408,13 +1405,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3866666666666667</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1426,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K16">
-        <v>0.8028169014084507</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L16">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="M16">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1450,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1461,10 +1458,10 @@
         <v>0.3636363636363636</v>
       </c>
       <c r="C17">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1476,19 +1473,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K17">
-        <v>0.7857142857142857</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="L17">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="M17">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1500,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1508,13 +1505,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3386243386243386</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C18">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D18">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1526,19 +1523,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K18">
-        <v>0.7666666666666667</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L18">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="M18">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1550,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1558,13 +1555,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3333333333333333</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C19">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1576,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>47</v>
@@ -1608,13 +1605,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.275</v>
+        <v>0.2875</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1626,19 +1623,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K20">
-        <v>0.7547169811320755</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L20">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="M20">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1650,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1658,13 +1655,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2738095238095238</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="C21">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D21">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1676,19 +1673,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K21">
-        <v>0.75</v>
+        <v>0.74375</v>
       </c>
       <c r="L21">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="M21">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1700,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1708,25 +1705,25 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1317204301075269</v>
+        <v>0.1715817694369973</v>
       </c>
       <c r="C22">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D22">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E22">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>50</v>
@@ -1758,37 +1755,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.009741350352704065</v>
+        <v>0.00841467519353753</v>
       </c>
       <c r="C23">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D23">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E23">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="F23">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>2948</v>
+        <v>2946</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K23">
-        <v>0.7125</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L23">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="M23">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1800,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1808,37 +1805,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.007675087943716022</v>
+        <v>0.006730769230769231</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D24">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E24">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="F24">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>3103</v>
+        <v>3099</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K24">
-        <v>0.6736292428198434</v>
+        <v>0.7</v>
       </c>
       <c r="L24">
-        <v>258</v>
+        <v>35</v>
       </c>
       <c r="M24">
-        <v>258</v>
+        <v>35</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1850,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>125</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1858,13 +1855,13 @@
         <v>53</v>
       </c>
       <c r="K25">
-        <v>0.6702127659574468</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L25">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M25">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1876,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1884,7 +1881,7 @@
         <v>54</v>
       </c>
       <c r="K26">
-        <v>0.6444444444444445</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L26">
         <v>29</v>
@@ -1902,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1910,7 +1907,7 @@
         <v>55</v>
       </c>
       <c r="K27">
-        <v>0.64</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L27">
         <v>32</v>
@@ -1928,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1936,13 +1933,13 @@
         <v>56</v>
       </c>
       <c r="K28">
-        <v>0.6279069767441861</v>
+        <v>0.6501305483028721</v>
       </c>
       <c r="L28">
-        <v>27</v>
+        <v>249</v>
       </c>
       <c r="M28">
-        <v>27</v>
+        <v>249</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1954,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1962,13 +1959,13 @@
         <v>57</v>
       </c>
       <c r="K29">
-        <v>0.6176470588235294</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L29">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M29">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1980,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1988,13 +1985,13 @@
         <v>58</v>
       </c>
       <c r="K30">
-        <v>0.6129032258064516</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="L30">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2006,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2014,13 +2011,13 @@
         <v>59</v>
       </c>
       <c r="K31">
-        <v>0.575</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L31">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="M31">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2032,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2040,13 +2037,13 @@
         <v>60</v>
       </c>
       <c r="K32">
-        <v>0.5728813559322034</v>
+        <v>0.6</v>
       </c>
       <c r="L32">
-        <v>169</v>
+        <v>24</v>
       </c>
       <c r="M32">
-        <v>169</v>
+        <v>24</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2058,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -2066,13 +2063,13 @@
         <v>61</v>
       </c>
       <c r="K33">
-        <v>0.5705882352941176</v>
+        <v>0.5970588235294118</v>
       </c>
       <c r="L33">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="M33">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2084,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -2092,13 +2089,13 @@
         <v>62</v>
       </c>
       <c r="K34">
-        <v>0.5625</v>
+        <v>0.5955056179775281</v>
       </c>
       <c r="L34">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="M34">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2110,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2118,13 +2115,13 @@
         <v>63</v>
       </c>
       <c r="K35">
-        <v>0.5393258426966292</v>
+        <v>0.5898305084745763</v>
       </c>
       <c r="L35">
-        <v>48</v>
+        <v>174</v>
       </c>
       <c r="M35">
-        <v>48</v>
+        <v>174</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2136,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>41</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2144,13 +2141,13 @@
         <v>64</v>
       </c>
       <c r="K36">
-        <v>0.525</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L36">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2162,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2170,13 +2167,13 @@
         <v>65</v>
       </c>
       <c r="K37">
-        <v>0.5230769230769231</v>
+        <v>0.575</v>
       </c>
       <c r="L37">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="M37">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2188,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2196,13 +2193,13 @@
         <v>66</v>
       </c>
       <c r="K38">
-        <v>0.5230125523012552</v>
+        <v>0.5690376569037657</v>
       </c>
       <c r="L38">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="M38">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2214,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2222,13 +2219,13 @@
         <v>67</v>
       </c>
       <c r="K39">
-        <v>0.5106382978723404</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L39">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2240,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2248,13 +2245,13 @@
         <v>68</v>
       </c>
       <c r="K40">
-        <v>0.4761904761904762</v>
+        <v>0.5342465753424658</v>
       </c>
       <c r="L40">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M40">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2266,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2274,13 +2271,13 @@
         <v>69</v>
       </c>
       <c r="K41">
-        <v>0.4743589743589743</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="L41">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M41">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2292,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2300,13 +2297,13 @@
         <v>70</v>
       </c>
       <c r="K42">
-        <v>0.4714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="L42">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M42">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2318,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2326,13 +2323,13 @@
         <v>71</v>
       </c>
       <c r="K43">
-        <v>0.4520547945205479</v>
+        <v>0.4893617021276596</v>
       </c>
       <c r="L43">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M43">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2344,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2352,13 +2349,13 @@
         <v>72</v>
       </c>
       <c r="K44">
-        <v>0.40625</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="L44">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M44">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2370,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2378,13 +2375,13 @@
         <v>73</v>
       </c>
       <c r="K45">
-        <v>0.3770491803278688</v>
+        <v>0.4428571428571428</v>
       </c>
       <c r="L45">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M45">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2396,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2404,13 +2401,13 @@
         <v>74</v>
       </c>
       <c r="K46">
-        <v>0.3559322033898305</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="L46">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M46">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2422,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2430,7 +2427,7 @@
         <v>75</v>
       </c>
       <c r="K47">
-        <v>0.3333333333333333</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="L47">
         <v>24</v>
@@ -2448,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2456,13 +2453,13 @@
         <v>76</v>
       </c>
       <c r="K48">
-        <v>0.2421052631578947</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L48">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M48">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2474,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>72</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2482,25 +2479,25 @@
         <v>77</v>
       </c>
       <c r="K49">
-        <v>0.2384615384615385</v>
+        <v>0.2676056338028169</v>
       </c>
       <c r="L49">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M49">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N49">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O49">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>99</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2508,13 +2505,13 @@
         <v>78</v>
       </c>
       <c r="K50">
-        <v>0.2362204724409449</v>
+        <v>0.2526315789473684</v>
       </c>
       <c r="L50">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M50">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2526,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2534,13 +2531,13 @@
         <v>79</v>
       </c>
       <c r="K51">
-        <v>0.2087912087912088</v>
+        <v>0.2047244094488189</v>
       </c>
       <c r="L51">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M51">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2552,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>72</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2560,25 +2557,25 @@
         <v>80</v>
       </c>
       <c r="K52">
-        <v>0.2018348623853211</v>
+        <v>0.1942446043165468</v>
       </c>
       <c r="L52">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="M52">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>87</v>
+        <v>336</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2586,13 +2583,13 @@
         <v>81</v>
       </c>
       <c r="K53">
-        <v>0.191358024691358</v>
+        <v>0.1775700934579439</v>
       </c>
       <c r="L53">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M53">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="N53">
         <v>0.97</v>
@@ -2604,7 +2601,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>131</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2612,13 +2609,13 @@
         <v>82</v>
       </c>
       <c r="K54">
-        <v>0.1774580335731415</v>
+        <v>0.1734939759036145</v>
       </c>
       <c r="L54">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M54">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N54">
         <v>0.99</v>
@@ -2638,25 +2635,25 @@
         <v>83</v>
       </c>
       <c r="K55">
-        <v>0.1711711711711712</v>
+        <v>0.169811320754717</v>
       </c>
       <c r="L55">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M55">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="N55">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2664,25 +2661,25 @@
         <v>84</v>
       </c>
       <c r="K56">
-        <v>0.1682242990654206</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L56">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M56">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="N56">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="O56">
-        <v>0.03000000000000003</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>178</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2690,22 +2687,22 @@
         <v>85</v>
       </c>
       <c r="K57">
-        <v>0.1674418604651163</v>
+        <v>0.1556603773584906</v>
       </c>
       <c r="L57">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M57">
         <v>36</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
         <v>179</v>
@@ -2716,25 +2713,25 @@
         <v>86</v>
       </c>
       <c r="K58">
-        <v>0.1658653846153846</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L58">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="M58">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>347</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2742,13 +2739,13 @@
         <v>87</v>
       </c>
       <c r="K59">
-        <v>0.163265306122449</v>
+        <v>0.1511627906976744</v>
       </c>
       <c r="L59">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M59">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2760,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>123</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2768,13 +2765,13 @@
         <v>88</v>
       </c>
       <c r="K60">
-        <v>0.1572327044025157</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L60">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M60">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2786,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2794,13 +2791,13 @@
         <v>89</v>
       </c>
       <c r="K61">
-        <v>0.1511627906976744</v>
+        <v>0.1411042944785276</v>
       </c>
       <c r="L61">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M61">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2812,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2820,13 +2817,13 @@
         <v>90</v>
       </c>
       <c r="K62">
-        <v>0.1454545454545454</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="L62">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M62">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2838,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2846,13 +2843,13 @@
         <v>91</v>
       </c>
       <c r="K63">
-        <v>0.1131019036954087</v>
+        <v>0.1198208286674132</v>
       </c>
       <c r="L63">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M63">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="N63">
         <v>0.99</v>
@@ -2864,7 +2861,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2872,25 +2869,25 @@
         <v>92</v>
       </c>
       <c r="K64">
-        <v>0.1048034934497817</v>
+        <v>0.119496855345912</v>
       </c>
       <c r="L64">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M64">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N64">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>205</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2898,13 +2895,13 @@
         <v>93</v>
       </c>
       <c r="K65">
-        <v>0.1027027027027027</v>
+        <v>0.1189189189189189</v>
       </c>
       <c r="L65">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M65">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2916,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2924,25 +2921,25 @@
         <v>94</v>
       </c>
       <c r="K66">
-        <v>0.100111234705228</v>
+        <v>0.1138461538461538</v>
       </c>
       <c r="L66">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="M66">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="N66">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="O66">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>809</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2950,25 +2947,25 @@
         <v>95</v>
       </c>
       <c r="K67">
-        <v>0.09771986970684039</v>
+        <v>0.09788654060066741</v>
       </c>
       <c r="L67">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="M67">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="N67">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O67">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>277</v>
+        <v>811</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2976,25 +2973,25 @@
         <v>96</v>
       </c>
       <c r="K68">
-        <v>0.09509202453987731</v>
+        <v>0.08912037037037036</v>
       </c>
       <c r="L68">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="M68">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="N68">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O68">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>295</v>
+        <v>787</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -3002,25 +2999,25 @@
         <v>97</v>
       </c>
       <c r="K69">
-        <v>0.07621247113163972</v>
+        <v>0.08270676691729323</v>
       </c>
       <c r="L69">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="M69">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="N69">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="O69">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>800</v>
+        <v>244</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -3028,25 +3025,25 @@
         <v>98</v>
       </c>
       <c r="K70">
-        <v>0.07596899224806201</v>
+        <v>0.08116883116883117</v>
       </c>
       <c r="L70">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="M70">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="N70">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>596</v>
+        <v>283</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -3054,25 +3051,25 @@
         <v>99</v>
       </c>
       <c r="K71">
-        <v>0.07216494845360824</v>
+        <v>0.07421324565523719</v>
       </c>
       <c r="L71">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="M71">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="N71">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="O71">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>450</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -3080,25 +3077,25 @@
         <v>100</v>
       </c>
       <c r="K72">
-        <v>0.07186472522310944</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="L72">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="M72">
-        <v>167</v>
+        <v>50</v>
       </c>
       <c r="N72">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="O72">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>1976</v>
+        <v>600</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -3106,181 +3103,155 @@
         <v>101</v>
       </c>
       <c r="K73">
-        <v>0.07142857142857142</v>
+        <v>0.07010309278350516</v>
       </c>
       <c r="L73">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="M73">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N73">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O73">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P73" t="b">
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>247</v>
+        <v>451</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="K74">
-        <v>0.04223521767381416</v>
+        <v>0.04791666666666667</v>
       </c>
       <c r="L74">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="M74">
-        <v>159</v>
+        <v>54</v>
       </c>
       <c r="N74">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="O74">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>2948</v>
+        <v>914</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K75">
-        <v>0.03903345724907063</v>
+        <v>0.04440497335701599</v>
       </c>
       <c r="L75">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M75">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N75">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="O75">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>517</v>
+        <v>538</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="K76">
-        <v>0.03893805309734513</v>
+        <v>0.04412719013627515</v>
       </c>
       <c r="L76">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="M76">
-        <v>24</v>
+        <v>161</v>
       </c>
       <c r="N76">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="O76">
-        <v>0.07999999999999996</v>
+        <v>0.16</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>543</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="K77">
-        <v>0.03634475597092419</v>
+        <v>0.02547169811320755</v>
       </c>
       <c r="L77">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="M77">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="N77">
-        <v>0.88</v>
+        <v>0.79</v>
       </c>
       <c r="O77">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="P77" t="b">
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>928</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K78">
-        <v>0.02775368603642671</v>
+        <v>0.02512998266897747</v>
       </c>
       <c r="L78">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M78">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N78">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O78">
-        <v>0.2</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="79" spans="10:17">
-      <c r="J79" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K79">
-        <v>0.02329241422725842</v>
-      </c>
-      <c r="L79">
-        <v>74</v>
-      </c>
-      <c r="M79">
-        <v>98</v>
-      </c>
-      <c r="N79">
-        <v>0.76</v>
-      </c>
-      <c r="O79">
-        <v>0.24</v>
-      </c>
-      <c r="P79" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q79">
-        <v>3103</v>
+        <v>1125</v>
       </c>
     </row>
   </sheetData>
